--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5143DB04-CF0B-4E8A-804A-89E935948B6C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DA75C4-14FC-43A0-B477-8B9CD63AD8CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RUNMANAGER" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="53">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -139,6 +139,42 @@
   </si>
   <si>
     <t>checking</t>
+  </si>
+  <si>
+    <t>generateToken</t>
+  </si>
+  <si>
+    <t>getBooks</t>
+  </si>
+  <si>
+    <t>addBook</t>
+  </si>
+  <si>
+    <t>deleteBook</t>
+  </si>
+  <si>
+    <t>getUser</t>
+  </si>
+  <si>
+    <t>generate token</t>
+  </si>
+  <si>
+    <t>get books</t>
+  </si>
+  <si>
+    <t>add a book</t>
+  </si>
+  <si>
+    <t>delete a book</t>
+  </si>
+  <si>
+    <t>get user and validate its book list</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
 </sst>
 </file>
@@ -515,15 +551,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.44140625" customWidth="1"/>
   </cols>
@@ -553,7 +589,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
@@ -570,7 +606,7 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
@@ -587,7 +623,7 @@
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -604,7 +640,7 @@
         <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -621,26 +657,112 @@
         <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -904,6 +1026,121 @@
         <v>20</v>
       </c>
     </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
